--- a/data.xlsx
+++ b/data.xlsx
@@ -1,53 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transactions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Transactions" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Parental Control Email</t>
+  </si>
+  <si>
+    <t>Arnesh Banerjee</t>
+  </si>
+  <si>
+    <t>arneshbanerjee24@gmail.com</t>
+  </si>
+  <si>
+    <t>pbkdf2:sha256:600000$3Ok6wZBu14wCuzdC$300826f7023590a25f82b7b8e2697db3ff61c2766f6d51c15208d027ea1cdd4c</t>
+  </si>
+  <si>
+    <t>madhuishu.banerjee@gmail.com</t>
+  </si>
+  <si>
+    <t>Madhumita</t>
+  </si>
+  <si>
+    <t>pbkdf2:sha256:600000$gN7r8CBoyfjqnU50$6600c71969e4a619321cbaed4abc041ce9e3ae5fc2d690d31595ca1ed621a966</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>ayushilipi13@gmail.com</t>
+  </si>
+  <si>
+    <t>pbkdf2:sha256:600000$eEyba0ioblCK9kPL$1462277694721c52b63c80a922b1727036bd55dac573d43e8d234ebeb30d7dde</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>test transaction 1</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>test transaction 2</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>test transaction 3</t>
+  </si>
+  <si>
+    <t>test transaction 4</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>test transaction 5</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>test transaction 6</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>dsa book</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>trip to hawaii</t>
+  </si>
+  <si>
+    <t>penthouse</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>test transaction 7</t>
+  </si>
+  <si>
+    <t>test transaction 8</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>test transaction 9</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;YYYY&quot;-mm-&quot;DD&quot; hh:mm:&quot;SS&quot;"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="&quot;YYYY&quot;-mm-&quot;DD&quot; hh:mm:&quot;SS&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <color indexed="8"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -112,64 +247,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -381,17 +501,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -418,10 +538,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -660,12 +780,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -942,7 +1062,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -969,10 +1089,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1213,383 +1333,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" s="13" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="D1" s="13" t="inlineStr">
-        <is>
-          <t>Balance</t>
-        </is>
-      </c>
-      <c r="E1" s="13" t="inlineStr">
-        <is>
-          <t>Parental Control Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Arnesh Banerjee</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arneshbanerjee24@gmail.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>pbkdf2:sha256:600000$3Ok6wZBu14wCuzdC$300826f7023590a25f82b7b8e2697db3ff61c2766f6d51c15208d027ea1cdd4c</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>540</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>madhuishu.banerjee@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Madhumita</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>madhuishu.banerjee@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>pbkdf2:sha256:600000$gN7r8CBoyfjqnU50$6600c71969e4a619321cbaed4abc041ce9e3ae5fc2d690d31595ca1ed621a966</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1170</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3330</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="32.5" customWidth="1" style="8" min="1" max="1"/>
-    <col width="19.3516" customWidth="1" style="8" min="2" max="2"/>
-    <col width="52.8516" customWidth="1" style="8" min="3" max="3"/>
-    <col width="18" customWidth="1" style="8" min="4" max="4"/>
-    <col width="33.8516" customWidth="1" style="8" min="5" max="5"/>
-    <col width="8.851559999999999" customWidth="1" style="8" min="6" max="16384"/>
+    <col min="1" max="1" width="32.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.3516" style="8" customWidth="1"/>
+    <col min="3" max="3" width="52.8516" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18" style="8" customWidth="1"/>
+    <col min="5" max="5" width="33.8516" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" s="10">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="16" customHeight="1" s="10">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>Arnesh Banerjee</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="n">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="5">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>test transaction 1</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="n">
-        <v>45575.70856391203</v>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1" s="10">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Arnesh Banerjee</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="n">
+      <c r="C2" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45575.708563912027</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>test transaction 2</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>45575.70873232639</v>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1" s="10">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Arnesh Banerjee</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="n">
+      <c r="C3" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9">
+        <v>45575.708732326391</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
         <v>70</v>
       </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>test transaction 3</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>45575.72840807871</v>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1" s="10">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>Arnesh Banerjee</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="C4" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9">
+        <v>45575.728408078707</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
         <v>120</v>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>test transaction 4</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>45575.72878300926</v>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1" s="10">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Arnesh Banerjee</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n">
+      <c r="C5" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9">
+        <v>45575.728783009261</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
         <v>300</v>
       </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>45575.73507552083</v>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Gifts</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1" s="10">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="E7" s="7" t="n"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" s="10">
-      <c r="A8" s="7" t="n"/>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="12" t="n"/>
-      <c r="E8" s="7" t="n"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" s="10">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="12" t="n"/>
-      <c r="E9" s="7" t="n"/>
-    </row>
-    <row r="10" ht="16" customHeight="1" s="10">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="12" t="n"/>
-      <c r="E10" s="7" t="n"/>
-    </row>
-    <row r="11" ht="16" customHeight="1" s="10">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="12" t="n"/>
-      <c r="E11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="16" customHeight="1" s="10">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="12" t="n"/>
-      <c r="E12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="16" customHeight="1" s="10">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="12" t="n"/>
-      <c r="E13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="16" customHeight="1" s="10">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="12" t="n"/>
-      <c r="E14" s="7" t="n"/>
-    </row>
-    <row r="15" ht="16" customHeight="1" s="10">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="12" t="n"/>
-      <c r="E15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="16" customHeight="1" s="10">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="12" t="n"/>
-      <c r="E16" s="7" t="n"/>
-    </row>
-    <row r="17" ht="16" customHeight="1" s="10">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="12" t="n"/>
-      <c r="E17" s="7" t="n"/>
-    </row>
-    <row r="18" ht="16" customHeight="1" s="10">
-      <c r="A18" s="7" t="n"/>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="12" t="n"/>
-      <c r="E18" s="7" t="n"/>
-    </row>
-    <row r="19" ht="16" customHeight="1" s="10">
-      <c r="A19" s="7" t="n"/>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="12" t="n"/>
-      <c r="E19" s="7" t="n"/>
-    </row>
-    <row r="20" ht="16" customHeight="1" s="10">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="12" t="n"/>
-      <c r="E20" s="7" t="n"/>
-    </row>
-    <row r="21" ht="16" customHeight="1" s="10">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="12" t="n"/>
-      <c r="E21" s="7" t="n"/>
-    </row>
-    <row r="22" ht="16" customHeight="1" s="10">
-      <c r="A22" s="7" t="n"/>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="12" t="n"/>
-      <c r="E22" s="7" t="n"/>
+      <c r="C6" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9">
+        <v>45575.735075520832</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9">
+        <v>45584.883566458331</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45584.893435682869</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-20</v>
+      </c>
+      <c r="C9" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9">
+        <v>45584.898225578712</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9">
+        <v>45584.919563773146</v>
+      </c>
+      <c r="E10" t="s" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9">
+        <v>45584.921720532409</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D12" s="9">
+        <v>45584.922188888893</v>
+      </c>
+      <c r="E12" t="s" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C13" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9">
+        <v>45584.922749189813</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C14" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="D14" s="9">
+        <v>45584.923075960651</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9">
+        <v>45585.638365370367</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>300</v>
+      </c>
+      <c r="C16" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9">
+        <v>45585.638555335638</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9">
+        <v>45585.6505243287</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" ht="16" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="16" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" ht="16" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>